--- a/viewer.xlsx
+++ b/viewer.xlsx
@@ -1,31 +1,77 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29530"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\NUAA\2026\MCM\26\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E449A0E-F8A0-4020-AF8B-AA441296933E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="3948" yWindow="2640" windowWidth="23040" windowHeight="12120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
+  <si>
+    <t>Season</t>
+  </si>
+  <si>
+    <t>Viewers</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N/A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>premiere</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>finale</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -53,7 +99,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -330,13 +376,517 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="9.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>13.48</v>
+      </c>
+      <c r="C2">
+        <v>22.36</v>
+      </c>
+      <c r="D2">
+        <f>AVERAGE(B2,C2)</f>
+        <v>17.920000000000002</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>17.46</v>
+      </c>
+      <c r="C3">
+        <v>27.23</v>
+      </c>
+      <c r="D3">
+        <v>18.64</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>20.22</v>
+      </c>
+      <c r="C4">
+        <v>27.51</v>
+      </c>
+      <c r="D4">
+        <v>20.7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>21.8</v>
+      </c>
+      <c r="C5">
+        <v>22.96</v>
+      </c>
+      <c r="D5">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>21.25</v>
+      </c>
+      <c r="C6">
+        <v>24.87</v>
+      </c>
+      <c r="D6">
+        <v>21.67</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>21.15</v>
+      </c>
+      <c r="C7">
+        <v>20.12</v>
+      </c>
+      <c r="D7">
+        <v>19.579999999999998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>21.34</v>
+      </c>
+      <c r="C8">
+        <v>20.65</v>
+      </c>
+      <c r="D8">
+        <v>19.77</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>22.83</v>
+      </c>
+      <c r="C9">
+        <v>20.309999999999999</v>
+      </c>
+      <c r="D9">
+        <v>16.309999999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>17.79</v>
+      </c>
+      <c r="C10">
+        <v>19.29</v>
+      </c>
+      <c r="D10">
+        <v>19.73</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>24.19</v>
+      </c>
+      <c r="C11">
+        <v>18.399999999999999</v>
+      </c>
+      <c r="D11">
+        <v>15.3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>21.3</v>
+      </c>
+      <c r="C12">
+        <v>24.13</v>
+      </c>
+      <c r="D12">
+        <v>21.93</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>22.65</v>
+      </c>
+      <c r="C13">
+        <v>21.42</v>
+      </c>
+      <c r="D13">
+        <v>18.61</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>19.03</v>
+      </c>
+      <c r="C14">
+        <v>19.45</v>
+      </c>
+      <c r="D14">
+        <v>18.239999999999998</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>18.79</v>
+      </c>
+      <c r="C15">
+        <v>17.75</v>
+      </c>
+      <c r="D15">
+        <v>16.079999999999998</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>14.11</v>
+      </c>
+      <c r="C16">
+        <v>16.73</v>
+      </c>
+      <c r="D16">
+        <v>14.85</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>17.059999999999999</v>
+      </c>
+      <c r="C17">
+        <v>15.2</v>
+      </c>
+      <c r="D17">
+        <v>13.78</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>16.04</v>
+      </c>
+      <c r="C18">
+        <v>14.75</v>
+      </c>
+      <c r="D18">
+        <v>15.2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>15.44</v>
+      </c>
+      <c r="C19">
+        <v>15.07</v>
+      </c>
+      <c r="D19">
+        <f>AVERAGE(B19,C19)</f>
+        <v>15.254999999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>13.64</v>
+      </c>
+      <c r="C20">
+        <v>15.98</v>
+      </c>
+      <c r="D20">
+        <v>14.73</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>14.16</v>
+      </c>
+      <c r="C21">
+        <v>13.49</v>
+      </c>
+      <c r="D21">
+        <v>10.82</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>13.13</v>
+      </c>
+      <c r="C22">
+        <v>13.49</v>
+      </c>
+      <c r="D22">
+        <v>13.44</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>12.46</v>
+      </c>
+      <c r="C23">
+        <v>10.49</v>
+      </c>
+      <c r="D23">
+        <f>AVERAGE(B23,C23)</f>
+        <v>11.475000000000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>12.19</v>
+      </c>
+      <c r="C24">
+        <v>10.97</v>
+      </c>
+      <c r="D24">
+        <v>12.38</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>12.09</v>
+      </c>
+      <c r="C25">
+        <v>8.91</v>
+      </c>
+      <c r="D25">
+        <f>AVERAGE(B25,C25)</f>
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26">
+        <v>10.71</v>
+      </c>
+      <c r="C26">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="D26">
+        <v>10.6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <v>8.48</v>
+      </c>
+      <c r="C27">
+        <v>8.77</v>
+      </c>
+      <c r="D27">
+        <f>AVERAGE(B27,C27)</f>
+        <v>8.625</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28">
+        <v>7.68</v>
+      </c>
+      <c r="C28">
+        <v>7.9</v>
+      </c>
+      <c r="D28">
+        <v>8.68</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29">
+        <v>8.07</v>
+      </c>
+      <c r="C29">
+        <v>7.79</v>
+      </c>
+      <c r="D29">
+        <v>7.84</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30">
+        <v>8.1199999999999992</v>
+      </c>
+      <c r="C30">
+        <v>6.41</v>
+      </c>
+      <c r="D30">
+        <v>7.09</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31">
+        <v>5.47</v>
+      </c>
+      <c r="C31">
+        <v>5.64</v>
+      </c>
+      <c r="D31">
+        <v>6.36</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>2</v>
+      </c>
+      <c r="C32" t="s">
+        <v>2</v>
+      </c>
+      <c r="D32">
+        <f>AVERAGE(D33,D31)</f>
+        <v>6.125</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33">
+        <v>4.78</v>
+      </c>
+      <c r="C33">
+        <v>5.5</v>
+      </c>
+      <c r="D33">
+        <v>5.89</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34">
+        <v>4.97</v>
+      </c>
+      <c r="C34">
+        <v>6.36</v>
+      </c>
+      <c r="D34">
+        <v>5.94</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35">
+        <v>5.28</v>
+      </c>
+      <c r="C35">
+        <v>9.43</v>
+      </c>
+      <c r="D35">
+        <f>AVERAGE(B35,C35)</f>
+        <v>7.3550000000000004</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>